--- a/Aplicacion_Sistema_Experto/Sitio_WEB/Variedades.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/Variedades.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706AB9BE-1459-4697-9E07-C0A70E77B1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98D50A7-5CB7-4E32-AF8F-E3D55F3BE617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2F24514-A324-4A91-BC41-6F647A0328B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$151</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="324">
   <si>
     <t>POJ2878</t>
   </si>
@@ -39,18 +42,12 @@
     <t>CO421</t>
   </si>
   <si>
-    <t>CANAL POINT</t>
-  </si>
-  <si>
     <t>AZUCARERA</t>
   </si>
   <si>
     <t>CAÑA BRAVA</t>
   </si>
   <si>
-    <t>PR 11-41</t>
-  </si>
-  <si>
     <t>CAPACHUDA</t>
   </si>
   <si>
@@ -343,16 +340,688 @@
   </si>
   <si>
     <t>NAN</t>
+  </si>
+  <si>
+    <t>CP57-603</t>
+  </si>
+  <si>
+    <t>CP75-11</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>21.17</t>
+  </si>
+  <si>
+    <t>19.8</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>20.9</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>5.31</t>
+  </si>
+  <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>19.6</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>96.3</t>
+  </si>
+  <si>
+    <t>91.3</t>
+  </si>
+  <si>
+    <t>88.7</t>
+  </si>
+  <si>
+    <t>91.8</t>
+  </si>
+  <si>
+    <t>90.6</t>
+  </si>
+  <si>
+    <t>91.9</t>
+  </si>
+  <si>
+    <t>88.2</t>
+  </si>
+  <si>
+    <t>95.2</t>
+  </si>
+  <si>
+    <t>89.5</t>
+  </si>
+  <si>
+    <t>90.7</t>
+  </si>
+  <si>
+    <t>91.2</t>
+  </si>
+  <si>
+    <t>91.1</t>
+  </si>
+  <si>
+    <t>CC84-75</t>
+  </si>
+  <si>
+    <t>CC86-45</t>
+  </si>
+  <si>
+    <t>CC85-47</t>
+  </si>
+  <si>
+    <t>CC85-57</t>
+  </si>
+  <si>
+    <t>CC85-92</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>90.2</t>
+  </si>
+  <si>
+    <t>CC91-1555</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>92.5</t>
+  </si>
+  <si>
+    <t>CC92-2154</t>
+  </si>
+  <si>
+    <t>93.2</t>
+  </si>
+  <si>
+    <t>CC93-7510</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>93.9</t>
+  </si>
+  <si>
+    <t>CC99-1405</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>5.42</t>
+  </si>
+  <si>
+    <t>89.9</t>
+  </si>
+  <si>
+    <t>CC01-678</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>94.7</t>
+  </si>
+  <si>
+    <t>CC01-1305</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>85.8</t>
+  </si>
+  <si>
+    <t>RD75-11</t>
+  </si>
+  <si>
+    <t>CC88-439</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>93.4</t>
+  </si>
+  <si>
+    <t>CC92-2198</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>CC92-2965</t>
+  </si>
+  <si>
+    <t>93.3</t>
+  </si>
+  <si>
+    <t>CC93-714</t>
+  </si>
+  <si>
+    <t>5.59</t>
+  </si>
+  <si>
+    <t>94.5</t>
+  </si>
+  <si>
+    <t>CC93-3458</t>
+  </si>
+  <si>
+    <t>94.4</t>
+  </si>
+  <si>
+    <t>CC93-7711</t>
+  </si>
+  <si>
+    <t>5.56</t>
+  </si>
+  <si>
+    <t>CC00-2639</t>
+  </si>
+  <si>
+    <t>5.63</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>18.75</t>
+  </si>
+  <si>
+    <t>89.29</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>94.6</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>94.3</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>92.3</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>83.3</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>5.32</t>
+  </si>
+  <si>
+    <t>90.5</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>92.6</t>
+  </si>
+  <si>
+    <t>86.1</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>89.1</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>86.3</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>84.3</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>94.9</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>86.6</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>88.5</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>88.1</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>92.8</t>
+  </si>
+  <si>
+    <t>87.8</t>
+  </si>
+  <si>
+    <t>87.9</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>93.5</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Gambita</t>
+  </si>
+  <si>
+    <t>Chitaraque</t>
+  </si>
+  <si>
+    <t>Boyacá</t>
+  </si>
+  <si>
+    <t>Norte de Santander</t>
+  </si>
+  <si>
+    <t>Pamplonita</t>
+  </si>
+  <si>
+    <t>Frontino</t>
+  </si>
+  <si>
+    <t>95.7</t>
+  </si>
+  <si>
+    <t>92.9</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>86.5</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>91.5</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>87.5</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>88.4</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>89.7</t>
+  </si>
+  <si>
+    <t>87.7</t>
+  </si>
+  <si>
+    <t>90.8</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>86.8</t>
+  </si>
+  <si>
+    <t>88.3</t>
+  </si>
+  <si>
+    <t>93.8</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>88.6</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>84.7</t>
+  </si>
+  <si>
+    <t>22.9</t>
+  </si>
+  <si>
+    <t>98.2</t>
+  </si>
+  <si>
+    <t>89.2</t>
+  </si>
+  <si>
+    <t>86.2</t>
+  </si>
+  <si>
+    <t>90.1</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>86.9</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Estados unidos</t>
+  </si>
+  <si>
+    <t>Republica Dominicada</t>
+  </si>
+  <si>
+    <t>CCSP89-43</t>
+  </si>
+  <si>
+    <t>POJ2714</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>93.56</t>
+  </si>
+  <si>
+    <t>CO419</t>
+  </si>
+  <si>
+    <t>CP61-632</t>
+  </si>
+  <si>
+    <t>5.38</t>
+  </si>
+  <si>
+    <t>93.1</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Isla de Java</t>
+  </si>
+  <si>
+    <t>PR67-1070</t>
+  </si>
+  <si>
+    <t>MY64-75</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Mayani</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>MEX64-1487</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>Cenicaña</t>
+  </si>
+  <si>
+    <t>CC85-104</t>
+  </si>
+  <si>
+    <t>5.49</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>83.33</t>
+  </si>
+  <si>
+    <t>223.5</t>
+  </si>
+  <si>
+    <t>CC82-15</t>
+  </si>
+  <si>
+    <t>CB36-14</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Campos de Brasil</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>5.58</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>CC85-23</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>CC87-505</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>173.2</t>
+  </si>
+  <si>
+    <t>5.17</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>[CANAL POINT] Caldas</t>
+  </si>
+  <si>
+    <t>PR11-41</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,10 +1047,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,16 +1369,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914BE781-1200-405E-ABFA-48304F8C6182}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -717,618 +1389,4862 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="1">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I7" s="1">
         <v>414</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="1">
-        <v>871</v>
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="1">
+        <v>103</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="2">
+        <v>104</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="1">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="2">
+        <v>120</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="G13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="2">
+        <v>87</v>
+      </c>
+      <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="1">
-        <v>901</v>
-      </c>
-      <c r="I14" s="1">
+        <v>103</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="1">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="1">
-        <v>168</v>
+        <v>103</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="2">
+        <v>90</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>17</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="2">
+        <v>146</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="1">
-        <v>21</v>
+      <c r="F18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="2">
+        <v>25</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="2">
+        <v>60</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="2">
+        <v>87</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="2">
+        <v>68</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="2">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="2">
+        <v>18</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="2">
+        <v>187</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I34" s="2">
+        <v>138</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" s="2">
+        <v>73</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I38" s="2">
+        <v>72</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="2">
+        <v>115</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I40" s="2">
+        <v>47</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="2">
+        <v>17</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="2">
+        <v>237</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I45" s="2">
+        <v>380</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H47" s="2">
+        <v>91</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="2">
+        <v>19</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H50" s="2">
+        <v>91</v>
+      </c>
+      <c r="I50" s="2">
+        <v>116</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" s="2">
+        <v>107</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="2">
+        <v>20</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I54" s="2">
+        <v>139</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I55" s="2">
+        <v>310</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>20</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I56" s="2">
+        <v>171</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="2">
+        <v>21</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="2">
+        <v>20</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I61" s="2">
+        <v>199</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I62" s="2">
+        <v>385</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="2">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I68" s="2">
+        <v>178</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I69" s="2">
+        <v>52</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G71" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I71" s="2">
+        <v>143</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I72" s="2">
+        <v>240</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>237</v>
+      </c>
+      <c r="B73" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I73" s="2">
+        <v>177</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="2">
+        <v>21</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H76" s="2">
+        <v>90</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G77" s="2">
+        <v>18</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I77" s="2">
+        <v>223</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I78" s="2">
+        <v>332</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G79" s="2">
+        <v>16</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80" s="2">
+        <v>93</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" s="2">
+        <v>18</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I83" s="2">
+        <v>140</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I85" s="2">
+        <v>80</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G86" s="2">
+        <v>18</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>241</v>
+      </c>
+      <c r="B87" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I87" s="2">
+        <v>126</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I88" s="2">
+        <v>257</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I89" s="2">
+        <v>119</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I94" s="2">
+        <v>264</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" t="s">
+        <v>239</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I95" s="2">
+        <v>249</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" s="2">
+        <v>22</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100" s="2">
+        <v>92</v>
+      </c>
+      <c r="I100" s="2">
+        <v>146</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G101" s="2">
+        <v>14</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I102" s="2">
+        <v>86</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" t="s">
+        <v>242</v>
+      </c>
+      <c r="C104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I104" s="2">
+        <v>81</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I105" s="2">
+        <v>168</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>237</v>
+      </c>
+      <c r="B106" t="s">
+        <v>238</v>
+      </c>
+      <c r="C106" t="s">
+        <v>140</v>
+      </c>
+      <c r="D106" s="2">
+        <v>21</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I106" s="2">
+        <v>97</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I107" s="2">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>140</v>
+      </c>
+      <c r="D108" s="2">
+        <v>17</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H108" s="2">
+        <v>90</v>
+      </c>
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H109" s="1">
+        <v>901</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="I110" s="1">
+        <v>221</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>321</v>
+      </c>
+      <c r="B111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>321</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" s="1">
+        <v>871</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>322</v>
+      </c>
+      <c r="D113" s="1">
+        <v>22</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>28</v>
+      <c r="F113" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G113" s="1">
+        <v>20</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" t="s">
+        <v>322</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I115" s="1">
+        <v>21</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I116" s="1">
+        <v>50</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" t="s">
+        <v>312</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I118" s="1">
+        <v>172</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>296</v>
+      </c>
+      <c r="C120" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I120" s="1">
+        <v>173</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" t="s">
+        <v>296</v>
+      </c>
+      <c r="C121" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I121" s="2">
+        <v>172</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I122" s="1">
+        <v>155</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" t="s">
+        <v>296</v>
+      </c>
+      <c r="C123" t="s">
+        <v>302</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I123" s="1">
+        <v>108</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" t="s">
+        <v>296</v>
+      </c>
+      <c r="C124" t="s">
+        <v>142</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I124" s="1">
+        <v>182</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" t="s">
+        <v>296</v>
+      </c>
+      <c r="C125" t="s">
+        <v>297</v>
+      </c>
+      <c r="D125" s="1">
+        <v>21</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" t="s">
+        <v>296</v>
+      </c>
+      <c r="C126" t="s">
+        <v>314</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I126" s="1">
+        <v>168</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" t="s">
+        <v>278</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I127" s="1">
+        <v>227</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" t="s">
+        <v>296</v>
+      </c>
+      <c r="C128" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I128" s="1">
+        <v>82</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" t="s">
+        <v>161</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I129" s="1">
+        <v>82</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" t="s">
+        <v>296</v>
+      </c>
+      <c r="C130" t="s">
+        <v>166</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I130" s="1">
+        <v>126</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" t="s">
+        <v>296</v>
+      </c>
+      <c r="C131" t="s">
+        <v>186</v>
+      </c>
+      <c r="D131" s="1">
+        <v>20</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I131" s="1">
+        <v>95</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132" t="s">
+        <v>296</v>
+      </c>
+      <c r="C132" t="s">
+        <v>157</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I132" s="1">
+        <v>179</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>36</v>
+      </c>
+      <c r="B133" t="s">
+        <v>296</v>
+      </c>
+      <c r="C133" t="s">
+        <v>184</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I133" s="1">
+        <v>211</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>36</v>
+      </c>
+      <c r="B134" t="s">
+        <v>296</v>
+      </c>
+      <c r="C134" t="s">
+        <v>153</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G134" s="1">
+        <v>20</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I134" s="1">
+        <v>131</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B135" t="s">
+        <v>296</v>
+      </c>
+      <c r="C135" t="s">
+        <v>179</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I135" s="1">
+        <v>167</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" t="s">
+        <v>182</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I136" s="1">
+        <v>157</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I137" s="1">
+        <v>88</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" t="s">
+        <v>296</v>
+      </c>
+      <c r="C138" t="s">
+        <v>174</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I138" s="1">
+        <v>154</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>36</v>
+      </c>
+      <c r="B139" t="s">
+        <v>296</v>
+      </c>
+      <c r="C139" t="s">
+        <v>151</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I139" s="1">
+        <v>480</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>36</v>
+      </c>
+      <c r="B140" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I140" s="1">
+        <v>239</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>36</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="1">
+        <v>19</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>36</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1">
+        <v>17</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" t="s">
+        <v>275</v>
+      </c>
+      <c r="C143" t="s">
+        <v>102</v>
+      </c>
+      <c r="D143">
+        <v>21</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I143" s="1">
+        <v>279</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" t="s">
+        <v>323</v>
+      </c>
+      <c r="C144" t="s">
+        <v>170</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I144" s="1">
+        <v>66</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" t="s">
+        <v>279</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I145" s="1">
+        <v>225</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" t="s">
+        <v>323</v>
+      </c>
+      <c r="C146" t="s">
+        <v>282</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I146" s="1">
+        <v>208</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>286</v>
+      </c>
+      <c r="B147" t="s">
+        <v>323</v>
+      </c>
+      <c r="C147" t="s">
+        <v>283</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I147" s="1">
+        <v>243</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>286</v>
+      </c>
+      <c r="B148" t="s">
+        <v>323</v>
+      </c>
+      <c r="C148" t="s">
+        <v>288</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I148" s="1">
+        <v>207</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>290</v>
+      </c>
+      <c r="B149" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" t="s">
+        <v>289</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I149" s="1">
+        <v>417</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" t="s">
+        <v>293</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I150" s="1">
+        <v>203</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" t="s">
+        <v>303</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I151" s="1">
+        <v>144</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J151" xr:uid="{230C0681-CAD4-49C5-86FD-7CCFBE0B773D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:J117">
+    <sortCondition ref="A110:A117"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008779A2D33CA8334492C549E4686517BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2a4260219ee5de385190f1abcccb100d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee14d8cb-d637-4a78-b781-9c79618f591c" xmlns:ns4="980e4f00-5dd6-4ca1-90c5-af35b41372d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6dd5b29c8537c5ffeac9c4273f4fd428" ns3:_="" ns4:_="">
     <xsd:import namespace="ee14d8cb-d637-4a78-b781-9c79618f591c"/>
@@ -1499,22 +6415,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5E41CA-7CC8-4374-B90B-F75EA63B41F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C1E75B-2AC2-40AB-8D57-20A7D5419072}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1531,21 +6449,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5E41CA-7CC8-4374-B90B-F75EA63B41F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Aplicacion_Sistema_Experto/Sitio_WEB/Variedades.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/Variedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98D50A7-5CB7-4E32-AF8F-E3D55F3BE617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD3F4B-021E-4B32-838D-7F9B10705343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2F24514-A324-4A91-BC41-6F647A0328B5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="325">
   <si>
     <t>POJ2878</t>
   </si>
@@ -114,12 +114,6 @@
     <t>Isnos</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
     <t>Br</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Pureza</t>
   </si>
   <si>
-    <t>Forforo (ppm)</t>
-  </si>
-  <si>
     <t>Supía</t>
   </si>
   <si>
@@ -339,9 +330,6 @@
     <t>Calidad</t>
   </si>
   <si>
-    <t>NAN</t>
-  </si>
-  <si>
     <t>CP57-603</t>
   </si>
   <si>
@@ -1006,6 +994,21 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Forforo</t>
+  </si>
+  <si>
+    <t>BUENA</t>
+  </si>
+  <si>
+    <t>MUY BUENA</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>NO APLICA</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1375,7 @@
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,42 +1392,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1433,22 +1436,22 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="I2">
+        <v>168</v>
+      </c>
+      <c r="J2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1465,22 +1468,22 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1488,31 +1491,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1">
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1520,31 +1523,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1">
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="1">
+        <v>88</v>
+      </c>
+      <c r="I5">
         <v>168</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
+      <c r="J5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1558,25 +1561,25 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1">
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>323</v>
+      </c>
+      <c r="J6" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1584,36 +1587,36 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="1">
+        <v>82</v>
+      </c>
+      <c r="I7">
         <v>414</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
+      <c r="J7" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1622,25 +1625,25 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>323</v>
+      </c>
+      <c r="J8" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1648,31 +1651,31 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>133</v>
+      </c>
+      <c r="I9" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1683,28 +1686,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>132</v>
+      </c>
+      <c r="I10" t="s">
+        <v>323</v>
+      </c>
+      <c r="J10" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1715,60 +1718,60 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="2">
+        <v>131</v>
+      </c>
+      <c r="I11">
         <v>104</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
+      <c r="J11" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="2">
+        <v>135</v>
+      </c>
+      <c r="I12">
         <v>120</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
+      <c r="J12" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1776,31 +1779,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H13" s="2">
         <v>87</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
+      <c r="I13" t="s">
+        <v>323</v>
+      </c>
+      <c r="J13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1811,28 +1814,28 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
+      </c>
+      <c r="I14" t="s">
+        <v>323</v>
+      </c>
+      <c r="J14" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,28 +1846,28 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H15" s="2">
         <v>90</v>
       </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>26</v>
+      <c r="I15" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1872,31 +1875,31 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G16" s="2">
         <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>323</v>
+      </c>
+      <c r="J16" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1904,31 +1907,31 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="2">
+        <v>127</v>
+      </c>
+      <c r="I17">
         <v>146</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>27</v>
+      <c r="J17" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1939,28 +1942,28 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>323</v>
+      </c>
+      <c r="J18" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1971,28 +1974,28 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="2">
+        <v>124</v>
+      </c>
+      <c r="I19">
         <v>25</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>26</v>
+      <c r="J19" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2003,60 +2006,60 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="I20" t="s">
+        <v>323</v>
+      </c>
+      <c r="J20" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="2">
+        <v>134</v>
+      </c>
+      <c r="I21">
         <v>60</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>27</v>
+      <c r="J21" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2064,63 +2067,63 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="2">
+        <v>130</v>
+      </c>
+      <c r="I22">
         <v>87</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>26</v>
+      <c r="J22" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="2">
+        <v>92</v>
+      </c>
+      <c r="I23">
         <v>68</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>27</v>
+      <c r="J23" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2131,60 +2134,60 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
+      </c>
+      <c r="I24" t="s">
+        <v>323</v>
+      </c>
+      <c r="J24" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>27</v>
+        <v>128</v>
+      </c>
+      <c r="I25" t="s">
+        <v>323</v>
+      </c>
+      <c r="J25" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2192,31 +2195,31 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>27</v>
+        <v>229</v>
+      </c>
+      <c r="I26" t="s">
+        <v>323</v>
+      </c>
+      <c r="J26" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2227,28 +2230,28 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>26</v>
+        <v>132</v>
+      </c>
+      <c r="I27" t="s">
+        <v>323</v>
+      </c>
+      <c r="J27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2259,60 +2262,60 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D28" s="2">
         <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G28" s="2">
         <v>18</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>26</v>
+        <v>228</v>
+      </c>
+      <c r="I28" t="s">
+        <v>323</v>
+      </c>
+      <c r="J28" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="2">
+        <v>192</v>
+      </c>
+      <c r="I29">
         <v>187</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>27</v>
+      <c r="J29" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2320,31 +2323,31 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>27</v>
+        <v>226</v>
+      </c>
+      <c r="I30" t="s">
+        <v>323</v>
+      </c>
+      <c r="J30" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2355,28 +2358,28 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2">
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>27</v>
+      <c r="I31" t="s">
+        <v>323</v>
+      </c>
+      <c r="J31" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2387,28 +2390,28 @@
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>26</v>
+        <v>135</v>
+      </c>
+      <c r="I32" t="s">
+        <v>323</v>
+      </c>
+      <c r="J32" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2416,31 +2419,31 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>323</v>
+      </c>
+      <c r="J33" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2448,31 +2451,31 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I34" s="2">
+        <v>210</v>
+      </c>
+      <c r="I34">
         <v>138</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>26</v>
+      <c r="J34" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,28 +2486,28 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>26</v>
+        <v>221</v>
+      </c>
+      <c r="I35" t="s">
+        <v>323</v>
+      </c>
+      <c r="J35" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2515,28 +2518,28 @@
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I36" s="2">
+        <v>219</v>
+      </c>
+      <c r="I36">
         <v>73</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>26</v>
+      <c r="J36" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2547,60 +2550,60 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>26</v>
+        <v>224</v>
+      </c>
+      <c r="I37" t="s">
+        <v>323</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I38" s="2">
+        <v>230</v>
+      </c>
+      <c r="I38">
         <v>72</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>27</v>
+      <c r="J38" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2608,95 +2611,95 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="2">
+        <v>82</v>
+      </c>
+      <c r="I39">
         <v>115</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>26</v>
+      <c r="J39" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I40" s="2">
+        <v>232</v>
+      </c>
+      <c r="I40">
         <v>47</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>27</v>
+      <c r="J40" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D41" s="2">
         <v>17</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
+      </c>
+      <c r="I41" t="s">
+        <v>323</v>
+      </c>
+      <c r="J41" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2704,31 +2707,31 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
+      </c>
+      <c r="I42" t="s">
+        <v>323</v>
+      </c>
+      <c r="J42" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2739,28 +2742,28 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>27</v>
+        <v>249</v>
+      </c>
+      <c r="I43" t="s">
+        <v>323</v>
+      </c>
+      <c r="J43" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2771,60 +2774,60 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I44" s="2">
+        <v>177</v>
+      </c>
+      <c r="I44">
         <v>237</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>26</v>
+      <c r="J44" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I45" s="2">
+        <v>264</v>
+      </c>
+      <c r="I45">
         <v>380</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>27</v>
+      <c r="J45" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2832,31 +2835,31 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>27</v>
+        <v>126</v>
+      </c>
+      <c r="I46" t="s">
+        <v>323</v>
+      </c>
+      <c r="J46" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2867,28 +2870,28 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H47" s="2">
         <v>91</v>
       </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>27</v>
+      <c r="I47" t="s">
+        <v>323</v>
+      </c>
+      <c r="J47" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2899,28 +2902,28 @@
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>26</v>
+        <v>202</v>
+      </c>
+      <c r="I48" t="s">
+        <v>323</v>
+      </c>
+      <c r="J48" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2928,31 +2931,31 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G49" s="2">
         <v>19</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>26</v>
+        <v>267</v>
+      </c>
+      <c r="I49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2960,31 +2963,31 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H50" s="2">
         <v>91</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50">
         <v>116</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>27</v>
+      <c r="J50" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2995,28 +2998,28 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2">
         <v>2</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>27</v>
+        <v>269</v>
+      </c>
+      <c r="I51" t="s">
+        <v>323</v>
+      </c>
+      <c r="J51" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3027,28 +3030,28 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I52" s="2">
+        <v>124</v>
+      </c>
+      <c r="I52">
         <v>107</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>26</v>
+      <c r="J52" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3059,60 +3062,60 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G53" s="2">
         <v>20</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
+        <v>323</v>
+      </c>
+      <c r="J53" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I54" s="2">
+        <v>229</v>
+      </c>
+      <c r="I54">
         <v>139</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>27</v>
+      <c r="J54" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3120,48 +3123,48 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I55" s="2">
+        <v>265</v>
+      </c>
+      <c r="I55">
         <v>310</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>26</v>
+      <c r="J55" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -3170,13 +3173,13 @@
         <v>20</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I56" s="2">
+        <v>206</v>
+      </c>
+      <c r="I56">
         <v>171</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>27</v>
+      <c r="J56" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3187,60 +3190,60 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="I57" t="s">
+        <v>323</v>
+      </c>
+      <c r="J57" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>27</v>
+        <v>266</v>
+      </c>
+      <c r="I58" t="s">
+        <v>323</v>
+      </c>
+      <c r="J58" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3248,31 +3251,31 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D59" s="2">
         <v>21</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>27</v>
+        <v>260</v>
+      </c>
+      <c r="I59" t="s">
+        <v>323</v>
+      </c>
+      <c r="J59" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3283,28 +3286,28 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G60" s="2">
         <v>20</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+      <c r="I60" t="s">
+        <v>323</v>
+      </c>
+      <c r="J60" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3315,60 +3318,60 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I61" s="2">
+        <v>257</v>
+      </c>
+      <c r="I61">
         <v>199</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>26</v>
+      <c r="J61" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I62" s="2">
+        <v>228</v>
+      </c>
+      <c r="I62">
         <v>385</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>26</v>
+      <c r="J62" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3376,31 +3379,31 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>27</v>
+        <v>256</v>
+      </c>
+      <c r="I63" t="s">
+        <v>323</v>
+      </c>
+      <c r="J63" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3411,28 +3414,28 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>27</v>
+        <v>202</v>
+      </c>
+      <c r="I64" t="s">
+        <v>323</v>
+      </c>
+      <c r="J64" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3443,28 +3446,28 @@
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>26</v>
+        <v>130</v>
+      </c>
+      <c r="I65" t="s">
+        <v>323</v>
+      </c>
+      <c r="J65" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3472,31 +3475,31 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>26</v>
+        <v>253</v>
+      </c>
+      <c r="I66" t="s">
+        <v>323</v>
+      </c>
+      <c r="J66" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3504,31 +3507,31 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>26</v>
+        <v>129</v>
+      </c>
+      <c r="I67" t="s">
+        <v>323</v>
+      </c>
+      <c r="J67" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3539,28 +3542,28 @@
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D68" s="2">
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I68" s="2">
+        <v>128</v>
+      </c>
+      <c r="I68">
         <v>178</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>27</v>
+      <c r="J68" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3571,28 +3574,28 @@
         <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I69">
         <v>52</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I69" s="2">
-        <v>52</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>26</v>
+      <c r="J69" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3603,60 +3606,60 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>26</v>
+        <v>252</v>
+      </c>
+      <c r="I70" t="s">
+        <v>323</v>
+      </c>
+      <c r="J70" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C71" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I71">
         <v>143</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I71" s="2">
-        <v>143</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>27</v>
+      <c r="J71" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3664,95 +3667,95 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I72" s="2">
+        <v>226</v>
+      </c>
+      <c r="I72">
         <v>240</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>26</v>
+      <c r="J72" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I73" s="2">
+      <c r="I73">
         <v>177</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>27</v>
+      <c r="J73" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2">
         <v>2</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I74" s="2">
-        <v>0</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>27</v>
+        <v>255</v>
+      </c>
+      <c r="I74" t="s">
+        <v>323</v>
+      </c>
+      <c r="J74" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3760,31 +3763,31 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I75" s="2">
-        <v>0</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="I75" t="s">
+        <v>323</v>
+      </c>
+      <c r="J75" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3795,28 +3798,28 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D76" s="2">
         <v>21</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H76" s="2">
         <v>90</v>
       </c>
-      <c r="I76" s="2">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>27</v>
+      <c r="I76" t="s">
+        <v>323</v>
+      </c>
+      <c r="J76" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3827,60 +3830,60 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G77" s="2">
         <v>18</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I77" s="2">
+        <v>194</v>
+      </c>
+      <c r="I77">
         <v>223</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>26</v>
+      <c r="J77" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I78" s="2">
+        <v>241</v>
+      </c>
+      <c r="I78">
         <v>332</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>26</v>
+      <c r="J78" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3888,31 +3891,31 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G79" s="2">
         <v>16</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I79" s="2">
-        <v>0</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>27</v>
+        <v>249</v>
+      </c>
+      <c r="I79" t="s">
+        <v>323</v>
+      </c>
+      <c r="J79" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3923,28 +3926,28 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H80" s="2">
         <v>93</v>
       </c>
-      <c r="I80" s="2">
-        <v>0</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>27</v>
+      <c r="I80" t="s">
+        <v>323</v>
+      </c>
+      <c r="J80" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3955,28 +3958,28 @@
         <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I81" s="2">
-        <v>0</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>26</v>
+        <v>245</v>
+      </c>
+      <c r="I81" t="s">
+        <v>323</v>
+      </c>
+      <c r="J81" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3984,31 +3987,31 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G82" s="2">
         <v>18</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I82" s="2">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
+      </c>
+      <c r="I82" t="s">
+        <v>323</v>
+      </c>
+      <c r="J82" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4016,31 +4019,31 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I83" s="2">
+        <v>134</v>
+      </c>
+      <c r="I83">
         <v>140</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>26</v>
+      <c r="J83" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4051,28 +4054,28 @@
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>26</v>
+        <v>243</v>
+      </c>
+      <c r="I84" t="s">
+        <v>323</v>
+      </c>
+      <c r="J84" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4083,28 +4086,28 @@
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I85" s="2">
+        <v>240</v>
+      </c>
+      <c r="I85">
         <v>80</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>26</v>
+      <c r="J85" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4115,60 +4118,60 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G86" s="2">
         <v>18</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I86" s="2">
-        <v>0</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>26</v>
+        <v>245</v>
+      </c>
+      <c r="I86" t="s">
+        <v>323</v>
+      </c>
+      <c r="J86" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C87" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I87" s="2">
+        <v>251</v>
+      </c>
+      <c r="I87">
         <v>126</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>27</v>
+      <c r="J87" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4176,63 +4179,63 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I88" s="2">
+        <v>247</v>
+      </c>
+      <c r="I88">
         <v>257</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>26</v>
+      <c r="J88" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I89" s="2">
+        <v>152</v>
+      </c>
+      <c r="I89">
         <v>119</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>27</v>
+      <c r="J89" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4243,60 +4246,60 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I90" s="2">
-        <v>0</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>27</v>
+        <v>241</v>
+      </c>
+      <c r="I90" t="s">
+        <v>323</v>
+      </c>
+      <c r="J90" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F91" s="2">
         <v>2</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I91" s="2">
-        <v>0</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>26</v>
+        <v>224</v>
+      </c>
+      <c r="I91" t="s">
+        <v>323</v>
+      </c>
+      <c r="J91" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4304,31 +4307,31 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="I92" t="s">
+        <v>323</v>
+      </c>
+      <c r="J92" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4339,28 +4342,28 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I93" s="2">
-        <v>0</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>27</v>
+        <v>210</v>
+      </c>
+      <c r="I93" t="s">
+        <v>323</v>
+      </c>
+      <c r="J93" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4371,60 +4374,60 @@
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I94" s="2">
+        <v>130</v>
+      </c>
+      <c r="I94">
         <v>264</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>26</v>
+      <c r="J94" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I95" s="2">
+        <v>190</v>
+      </c>
+      <c r="I95">
         <v>249</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>27</v>
+      <c r="J95" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4432,31 +4435,31 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I96" s="2">
-        <v>0</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>27</v>
+        <v>207</v>
+      </c>
+      <c r="I96" t="s">
+        <v>323</v>
+      </c>
+      <c r="J96" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4467,28 +4470,28 @@
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I97" s="2">
-        <v>0</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>27</v>
+        <v>206</v>
+      </c>
+      <c r="I97" t="s">
+        <v>323</v>
+      </c>
+      <c r="J97" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4499,28 +4502,28 @@
         <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D98" s="2">
         <v>22</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>26</v>
+        <v>202</v>
+      </c>
+      <c r="I98" t="s">
+        <v>323</v>
+      </c>
+      <c r="J98" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4528,31 +4531,31 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I99" s="2">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>26</v>
+        <v>146</v>
+      </c>
+      <c r="I99" t="s">
+        <v>323</v>
+      </c>
+      <c r="J99" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4560,31 +4563,31 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H100" s="2">
         <v>92</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100">
         <v>146</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>26</v>
+      <c r="J100" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4595,28 +4598,28 @@
         <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G101" s="2">
         <v>14</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I101" s="2">
-        <v>0</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
+      </c>
+      <c r="I101" t="s">
+        <v>323</v>
+      </c>
+      <c r="J101" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4627,28 +4630,28 @@
         <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I102" s="2">
+        <v>192</v>
+      </c>
+      <c r="I102">
         <v>86</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>26</v>
+      <c r="J102" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4659,60 +4662,60 @@
         <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I103" s="2">
-        <v>0</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>26</v>
+        <v>125</v>
+      </c>
+      <c r="I103" t="s">
+        <v>323</v>
+      </c>
+      <c r="J103" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I104" s="2">
+        <v>213</v>
+      </c>
+      <c r="I104">
         <v>81</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>27</v>
+      <c r="J104" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4720,63 +4723,63 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I105" s="2">
+        <v>156</v>
+      </c>
+      <c r="I105">
         <v>168</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>26</v>
+      <c r="J105" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C106" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D106" s="2">
         <v>21</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I106" s="2">
+        <v>174</v>
+      </c>
+      <c r="I106">
         <v>97</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>27</v>
+      <c r="J106" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4787,60 +4790,60 @@
         <v>22</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I107" s="2">
-        <v>0</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>26</v>
+        <v>194</v>
+      </c>
+      <c r="I107" t="s">
+        <v>323</v>
+      </c>
+      <c r="J107" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D108" s="2">
         <v>17</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H108" s="2">
         <v>90</v>
       </c>
-      <c r="I108" s="2">
-        <v>0</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>26</v>
+      <c r="I108" t="s">
+        <v>323</v>
+      </c>
+      <c r="J108" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4854,25 +4857,25 @@
         <v>4</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H109" s="1">
         <v>901</v>
       </c>
-      <c r="I109" s="1">
-        <v>0</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>26</v>
+      <c r="I109" t="s">
+        <v>323</v>
+      </c>
+      <c r="J109" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4886,89 +4889,89 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I110" s="1">
+        <v>79</v>
+      </c>
+      <c r="I110">
         <v>221</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>26</v>
+      <c r="J110" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C111" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="I111" t="s">
+        <v>93</v>
+      </c>
+      <c r="J111" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B112" t="s">
         <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H112" s="1">
         <v>871</v>
       </c>
-      <c r="I112" s="1">
-        <v>0</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>27</v>
+      <c r="I112" t="s">
+        <v>323</v>
+      </c>
+      <c r="J112" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4979,28 +4982,28 @@
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D113" s="1">
         <v>22</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G113" s="1">
         <v>20</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I113" s="1">
-        <v>0</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
+      </c>
+      <c r="I113" t="s">
+        <v>323</v>
+      </c>
+      <c r="J113" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5008,31 +5011,31 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C114" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I114" s="1">
-        <v>0</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>26</v>
+        <v>87</v>
+      </c>
+      <c r="I114" t="s">
+        <v>323</v>
+      </c>
+      <c r="J114" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5046,25 +5049,25 @@
         <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I115" s="1">
+        <v>91</v>
+      </c>
+      <c r="I115">
         <v>21</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>26</v>
+      <c r="J115" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5078,25 +5081,25 @@
         <v>7</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I116" s="1">
+        <v>92</v>
+      </c>
+      <c r="I116">
         <v>50</v>
       </c>
-      <c r="J116" s="1" t="s">
-        <v>26</v>
+      <c r="J116" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5110,766 +5113,766 @@
         <v>5</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F117" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I117" s="1">
-        <v>0</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="I117" t="s">
+        <v>323</v>
+      </c>
+      <c r="J117" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C118" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I118" s="1">
+        <v>152</v>
+      </c>
+      <c r="I118">
         <v>172</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>27</v>
+      <c r="J118" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>27</v>
+        <v>174</v>
+      </c>
+      <c r="I119" t="s">
+        <v>314</v>
+      </c>
+      <c r="J119" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B120" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I120" s="1">
+        <v>253</v>
+      </c>
+      <c r="I120">
         <v>173</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>27</v>
+      <c r="J120" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B121" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C121" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I121" s="2">
+        <v>161</v>
+      </c>
+      <c r="I121">
         <v>172</v>
       </c>
-      <c r="J121" s="1" t="s">
-        <v>27</v>
+      <c r="J121" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I122" s="1">
+        <v>241</v>
+      </c>
+      <c r="I122">
         <v>155</v>
       </c>
-      <c r="J122" s="1" t="s">
-        <v>27</v>
+      <c r="J122" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C123" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I123" s="1">
+        <v>87</v>
+      </c>
+      <c r="I123">
         <v>108</v>
       </c>
-      <c r="J123" s="1" t="s">
-        <v>27</v>
+      <c r="J123" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I124" s="1">
+        <v>245</v>
+      </c>
+      <c r="I124">
         <v>182</v>
       </c>
-      <c r="J124" s="1" t="s">
-        <v>27</v>
+      <c r="J124" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C125" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D125" s="1">
         <v>21</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>26</v>
+        <v>296</v>
+      </c>
+      <c r="I125" t="s">
+        <v>297</v>
+      </c>
+      <c r="J125" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C126" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I126" s="1">
+        <v>169</v>
+      </c>
+      <c r="I126">
         <v>168</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>27</v>
+      <c r="J126" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B127" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C127" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I127" s="1">
+        <v>143</v>
+      </c>
+      <c r="I127">
         <v>227</v>
       </c>
-      <c r="J127" s="1" t="s">
-        <v>26</v>
+      <c r="J127" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C128" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I128" s="1">
+        <v>169</v>
+      </c>
+      <c r="I128">
         <v>82</v>
       </c>
-      <c r="J128" s="1" t="s">
-        <v>26</v>
+      <c r="J128" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B129" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C129" t="s">
+        <v>157</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I129" s="1">
+      <c r="I129">
         <v>82</v>
       </c>
-      <c r="J129" s="1" t="s">
-        <v>26</v>
+      <c r="J129" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B130" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C130" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D130" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="G130" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I130" s="1">
+        <v>165</v>
+      </c>
+      <c r="I130">
         <v>126</v>
       </c>
-      <c r="J130" s="1" t="s">
-        <v>26</v>
+      <c r="J130" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C131" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D131" s="1">
         <v>20</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I131" s="1">
+        <v>184</v>
+      </c>
+      <c r="I131">
         <v>95</v>
       </c>
-      <c r="J131" s="1" t="s">
-        <v>26</v>
+      <c r="J131" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B132" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C132" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I132" s="1">
+        <v>156</v>
+      </c>
+      <c r="I132">
         <v>179</v>
       </c>
-      <c r="J132" s="1" t="s">
-        <v>26</v>
+      <c r="J132" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B133" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C133" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I133" s="1">
+        <v>177</v>
+      </c>
+      <c r="I133">
         <v>211</v>
       </c>
-      <c r="J133" s="1" t="s">
-        <v>26</v>
+      <c r="J133" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G134" s="1">
         <v>20</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I134" s="1">
+        <v>152</v>
+      </c>
+      <c r="I134">
         <v>131</v>
       </c>
-      <c r="J134" s="1" t="s">
-        <v>26</v>
+      <c r="J134" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B135" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C135" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I135" s="1">
+        <v>177</v>
+      </c>
+      <c r="I135">
         <v>167</v>
       </c>
-      <c r="J135" s="1" t="s">
-        <v>26</v>
+      <c r="J135" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B136" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F136" s="1">
         <v>1</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I136" s="1">
+        <v>179</v>
+      </c>
+      <c r="I136">
         <v>157</v>
       </c>
-      <c r="J136" s="1" t="s">
-        <v>26</v>
+      <c r="J136" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B137" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C137" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F137" s="1">
         <v>1</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I137" s="1">
+        <v>174</v>
+      </c>
+      <c r="I137">
         <v>88</v>
       </c>
-      <c r="J137" s="1" t="s">
-        <v>26</v>
+      <c r="J137" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C138" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I138" s="1">
+        <v>169</v>
+      </c>
+      <c r="I138">
         <v>154</v>
       </c>
-      <c r="J138" s="1" t="s">
-        <v>26</v>
+      <c r="J138" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B139" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C139" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I139" s="1">
+        <v>148</v>
+      </c>
+      <c r="I139">
         <v>480</v>
       </c>
-      <c r="J139" s="1" t="s">
-        <v>26</v>
+      <c r="J139" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B140" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I140" s="1">
+        <v>146</v>
+      </c>
+      <c r="I140">
         <v>239</v>
       </c>
-      <c r="J140" s="1" t="s">
-        <v>26</v>
+      <c r="J140" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
@@ -5881,27 +5884,27 @@
         <v>19</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I141" s="1">
-        <v>0</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="I141" t="s">
+        <v>323</v>
+      </c>
+      <c r="J141" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B142" t="s">
         <v>15</v>
@@ -5913,310 +5916,310 @@
         <v>17</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I142" s="1">
-        <v>0</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
+      </c>
+      <c r="I142" t="s">
+        <v>323</v>
+      </c>
+      <c r="J142" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C143" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D143">
         <v>21</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I143" s="1">
+        <v>188</v>
+      </c>
+      <c r="I143">
         <v>279</v>
       </c>
-      <c r="J143" s="1" t="s">
-        <v>26</v>
+      <c r="J143" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B144" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C144" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I144" s="1">
+        <v>92</v>
+      </c>
+      <c r="I144">
         <v>66</v>
       </c>
-      <c r="J144" s="1" t="s">
-        <v>26</v>
+      <c r="J144" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B145" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C145" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="I145" s="1">
+        <v>277</v>
+      </c>
+      <c r="I145">
         <v>225</v>
       </c>
-      <c r="J145" s="1" t="s">
-        <v>27</v>
+      <c r="J145" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B146" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C146" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I146" s="1">
+        <v>253</v>
+      </c>
+      <c r="I146">
         <v>208</v>
       </c>
-      <c r="J146" s="1" t="s">
-        <v>27</v>
+      <c r="J146" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B147" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C147" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I147" s="1">
+        <v>281</v>
+      </c>
+      <c r="I147">
         <v>243</v>
       </c>
-      <c r="J147" s="1" t="s">
-        <v>27</v>
+      <c r="J147" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B148" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C148" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I148" s="1">
+        <v>152</v>
+      </c>
+      <c r="I148">
         <v>207</v>
       </c>
-      <c r="J148" s="1" t="s">
-        <v>27</v>
+      <c r="J148" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B149" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C149" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I149" s="1">
+        <v>179</v>
+      </c>
+      <c r="I149">
         <v>417</v>
       </c>
-      <c r="J149" s="1" t="s">
-        <v>27</v>
+      <c r="J149" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B150" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I150" s="1">
+        <v>129</v>
+      </c>
+      <c r="I150">
         <v>203</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>27</v>
+      <c r="J150" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B151" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C151" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I151" s="1">
+        <v>84</v>
+      </c>
+      <c r="I151">
         <v>144</v>
       </c>
-      <c r="J151" s="1" t="s">
-        <v>27</v>
+      <c r="J151" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/Variedades.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/Variedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD3F4B-021E-4B32-838D-7F9B10705343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B944DF-6AA0-4E5B-9E62-549F022268B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2F24514-A324-4A91-BC41-6F647A0328B5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="337">
   <si>
     <t>POJ2878</t>
   </si>
@@ -1009,6 +1009,42 @@
   </si>
   <si>
     <t>NO APLICA</t>
+  </si>
+  <si>
+    <t>BrPanela</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>96.8</t>
+  </si>
+  <si>
+    <t>92.4</t>
+  </si>
+  <si>
+    <t>92.1</t>
+  </si>
+  <si>
+    <t>88.8</t>
+  </si>
+  <si>
+    <t>89.8</t>
+  </si>
+  <si>
+    <t>89.6</t>
+  </si>
+  <si>
+    <t>89.3</t>
+  </si>
+  <si>
+    <t>96.4</t>
+  </si>
+  <si>
+    <t>87.1</t>
+  </si>
+  <si>
+    <t>92.2</t>
   </si>
 </sst>
 </file>
@@ -1050,13 +1086,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1372,25 +1411,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914BE781-1200-405E-ABFA-48304F8C6182}">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J154" sqref="J154"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="8" width="13" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -1421,8 +1460,11 @@
       <c r="J1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -1453,8 +1495,11 @@
       <c r="J2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1479,14 +1524,17 @@
       <c r="H3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I3" t="s">
-        <v>323</v>
+      <c r="I3">
+        <v>168</v>
       </c>
       <c r="J3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1517,8 +1565,11 @@
       <c r="J4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1549,8 +1600,11 @@
       <c r="J5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1581,8 +1635,11 @@
       <c r="J6" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1613,8 +1670,11 @@
       <c r="J7" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1645,8 +1705,11 @@
       <c r="J8" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1677,8 +1740,11 @@
       <c r="J9" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1709,8 +1775,11 @@
       <c r="J10" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1741,8 +1810,11 @@
       <c r="J11" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>236</v>
       </c>
@@ -1773,8 +1845,11 @@
       <c r="J12" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1805,8 +1880,11 @@
       <c r="J13" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1837,8 +1915,11 @@
       <c r="J14" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1869,8 +1950,11 @@
       <c r="J15" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1901,8 +1985,11 @@
       <c r="J16" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1933,8 +2020,11 @@
       <c r="J17" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1965,8 +2055,11 @@
       <c r="J18" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1997,8 +2090,11 @@
       <c r="J19" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2029,8 +2125,11 @@
       <c r="J20" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>237</v>
       </c>
@@ -2061,8 +2160,11 @@
       <c r="J21" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2093,8 +2195,11 @@
       <c r="J22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -2125,8 +2230,11 @@
       <c r="J23" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2157,8 +2265,11 @@
       <c r="J24" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2189,8 +2300,11 @@
       <c r="J25" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2221,8 +2335,11 @@
       <c r="J26" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2253,8 +2370,11 @@
       <c r="J27" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2285,8 +2405,11 @@
       <c r="J28" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>236</v>
       </c>
@@ -2317,8 +2440,11 @@
       <c r="J29" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2349,8 +2475,11 @@
       <c r="J30" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2381,8 +2510,11 @@
       <c r="J31" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2413,8 +2545,11 @@
       <c r="J32" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2445,8 +2580,11 @@
       <c r="J33" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2477,8 +2615,11 @@
       <c r="J34" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2650,11 @@
       <c r="J35" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2541,8 +2685,11 @@
       <c r="J36" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2573,8 +2720,11 @@
       <c r="J37" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>237</v>
       </c>
@@ -2605,8 +2755,11 @@
       <c r="J38" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2637,8 +2790,11 @@
       <c r="J39" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -2669,8 +2825,11 @@
       <c r="J40" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2701,8 +2860,11 @@
       <c r="J41" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2733,8 +2895,11 @@
       <c r="J42" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2765,8 +2930,11 @@
       <c r="J43" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2797,8 +2965,11 @@
       <c r="J44" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>236</v>
       </c>
@@ -2829,8 +3000,11 @@
       <c r="J45" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2861,8 +3035,11 @@
       <c r="J46" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2893,8 +3070,11 @@
       <c r="J47" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -2925,8 +3105,11 @@
       <c r="J48" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -2957,8 +3140,11 @@
       <c r="J49" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2989,8 +3175,11 @@
       <c r="J50" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3021,8 +3210,11 @@
       <c r="J51" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -3053,8 +3245,11 @@
       <c r="J52" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -3085,8 +3280,11 @@
       <c r="J53" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>237</v>
       </c>
@@ -3117,8 +3315,11 @@
       <c r="J54" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3149,8 +3350,11 @@
       <c r="J55" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>233</v>
       </c>
@@ -3181,8 +3385,11 @@
       <c r="J56" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3213,8 +3420,11 @@
       <c r="J57" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3245,8 +3455,11 @@
       <c r="J58" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3277,8 +3490,11 @@
       <c r="J59" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3309,8 +3525,11 @@
       <c r="J60" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3341,8 +3560,11 @@
       <c r="J61" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>236</v>
       </c>
@@ -3373,8 +3595,11 @@
       <c r="J62" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3405,8 +3630,11 @@
       <c r="J63" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3437,8 +3665,11 @@
       <c r="J64" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -3469,8 +3700,11 @@
       <c r="J65" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -3501,8 +3735,11 @@
       <c r="J66" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3533,8 +3770,11 @@
       <c r="J67" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3565,8 +3805,11 @@
       <c r="J68" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -3597,8 +3840,11 @@
       <c r="J69" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -3629,8 +3875,11 @@
       <c r="J70" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>237</v>
       </c>
@@ -3661,8 +3910,11 @@
       <c r="J71" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3693,8 +3945,11 @@
       <c r="J72" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -3725,8 +3980,11 @@
       <c r="J73" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -3757,8 +4015,11 @@
       <c r="J74" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3789,8 +4050,11 @@
       <c r="J75" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3821,8 +4085,11 @@
       <c r="J76" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -3853,8 +4120,11 @@
       <c r="J77" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>236</v>
       </c>
@@ -3885,8 +4155,11 @@
       <c r="J78" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -3917,8 +4190,11 @@
       <c r="J79" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -3949,8 +4225,11 @@
       <c r="J80" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -3981,8 +4260,11 @@
       <c r="J81" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -4013,8 +4295,11 @@
       <c r="J82" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -4045,8 +4330,11 @@
       <c r="J83" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4077,8 +4365,11 @@
       <c r="J84" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -4109,8 +4400,11 @@
       <c r="J85" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -4141,8 +4435,11 @@
       <c r="J86" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>237</v>
       </c>
@@ -4173,8 +4470,11 @@
       <c r="J87" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4205,8 +4505,11 @@
       <c r="J88" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>233</v>
       </c>
@@ -4237,8 +4540,11 @@
       <c r="J89" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -4269,8 +4575,11 @@
       <c r="J90" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -4301,8 +4610,11 @@
       <c r="J91" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -4333,8 +4645,11 @@
       <c r="J92" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4365,8 +4680,11 @@
       <c r="J93" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4397,8 +4715,11 @@
       <c r="J94" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -4429,8 +4750,11 @@
       <c r="J95" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -4461,8 +4785,11 @@
       <c r="J96" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -4493,8 +4820,11 @@
       <c r="J97" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -4525,8 +4855,11 @@
       <c r="J98" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -4557,8 +4890,11 @@
       <c r="J99" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -4589,8 +4925,11 @@
       <c r="J100" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4621,8 +4960,11 @@
       <c r="J101" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -4653,8 +4995,11 @@
       <c r="J102" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -4685,8 +5030,11 @@
       <c r="J103" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>237</v>
       </c>
@@ -4717,8 +5065,11 @@
       <c r="J104" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -4749,8 +5100,11 @@
       <c r="J105" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -4781,8 +5135,11 @@
       <c r="J106" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -4813,8 +5170,11 @@
       <c r="J107" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -4845,8 +5205,11 @@
       <c r="J108" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -4877,8 +5240,11 @@
       <c r="J109" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -4909,8 +5275,11 @@
       <c r="J110" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>317</v>
       </c>
@@ -4941,8 +5310,11 @@
       <c r="J111" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -4973,8 +5345,11 @@
       <c r="J112" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -5005,8 +5380,11 @@
       <c r="J113" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -5037,8 +5415,11 @@
       <c r="J114" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -5069,8 +5450,11 @@
       <c r="J115" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -5101,8 +5485,11 @@
       <c r="J116" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -5133,8 +5520,11 @@
       <c r="J117" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -5165,8 +5555,11 @@
       <c r="J118" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -5197,8 +5590,11 @@
       <c r="J119" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -5229,8 +5625,11 @@
       <c r="J120" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -5261,8 +5660,11 @@
       <c r="J121" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -5293,8 +5695,11 @@
       <c r="J122" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -5325,8 +5730,11 @@
       <c r="J123" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -5357,8 +5765,11 @@
       <c r="J124" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -5389,8 +5800,11 @@
       <c r="J125" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -5421,8 +5835,11 @@
       <c r="J126" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -5453,8 +5870,11 @@
       <c r="J127" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5485,8 +5905,11 @@
       <c r="J128" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -5517,8 +5940,11 @@
       <c r="J129" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -5549,8 +5975,11 @@
       <c r="J130" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -5581,8 +6010,11 @@
       <c r="J131" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -5613,8 +6045,11 @@
       <c r="J132" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -5645,8 +6080,11 @@
       <c r="J133" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -5677,8 +6115,11 @@
       <c r="J134" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -5709,8 +6150,11 @@
       <c r="J135" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -5741,8 +6185,11 @@
       <c r="J136" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -5773,8 +6220,11 @@
       <c r="J137" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -5805,8 +6255,11 @@
       <c r="J138" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -5837,8 +6290,11 @@
       <c r="J139" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -5869,8 +6325,11 @@
       <c r="J140" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -5901,8 +6360,11 @@
       <c r="J141" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -5933,8 +6395,11 @@
       <c r="J142" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>272</v>
       </c>
@@ -5965,8 +6430,11 @@
       <c r="J143" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>273</v>
       </c>
@@ -5997,8 +6465,11 @@
       <c r="J144" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>283</v>
       </c>
@@ -6029,8 +6500,11 @@
       <c r="J145" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>283</v>
       </c>
@@ -6061,8 +6535,11 @@
       <c r="J146" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>282</v>
       </c>
@@ -6093,8 +6570,11 @@
       <c r="J147" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>282</v>
       </c>
@@ -6125,8 +6605,11 @@
       <c r="J148" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>286</v>
       </c>
@@ -6157,8 +6640,11 @@
       <c r="J149" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>290</v>
       </c>
@@ -6189,8 +6675,11 @@
       <c r="J150" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -6221,9 +6710,12 @@
       <c r="J151" t="s">
         <v>322</v>
       </c>
+      <c r="K151" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J151" xr:uid="{230C0681-CAD4-49C5-86FD-7CCFBE0B773D}"/>
+  <autoFilter ref="A1:K151" xr:uid="{5F1D0039-5C2D-4D9C-98AD-C051957C84CE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:J117">
     <sortCondition ref="A110:A117"/>
   </sortState>
@@ -6233,21 +6725,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008779A2D33CA8334492C549E4686517BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2a4260219ee5de385190f1abcccb100d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee14d8cb-d637-4a78-b781-9c79618f591c" xmlns:ns4="980e4f00-5dd6-4ca1-90c5-af35b41372d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6dd5b29c8537c5ffeac9c4273f4fd428" ns3:_="" ns4:_="">
     <xsd:import namespace="ee14d8cb-d637-4a78-b781-9c79618f591c"/>
@@ -6418,24 +6895,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5E41CA-7CC8-4374-B90B-F75EA63B41F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C1E75B-2AC2-40AB-8D57-20A7D5419072}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6452,4 +6927,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5E41CA-7CC8-4374-B90B-F75EA63B41F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Aplicacion_Sistema_Experto/Sitio_WEB/Variedades.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/Variedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B944DF-6AA0-4E5B-9E62-549F022268B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D263D-C760-455B-832C-B8BECD2FC5F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2F24514-A324-4A91-BC41-6F647A0328B5}"/>
   </bookViews>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,31 +1472,31 @@
         <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2">
         <v>66</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2">
-        <v>168</v>
-      </c>
       <c r="J2" t="s">
         <v>321</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6725,6 +6725,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008779A2D33CA8334492C549E4686517BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2a4260219ee5de385190f1abcccb100d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee14d8cb-d637-4a78-b781-9c79618f591c" xmlns:ns4="980e4f00-5dd6-4ca1-90c5-af35b41372d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6dd5b29c8537c5ffeac9c4273f4fd428" ns3:_="" ns4:_="">
     <xsd:import namespace="ee14d8cb-d637-4a78-b781-9c79618f591c"/>
@@ -6895,22 +6910,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5E41CA-7CC8-4374-B90B-F75EA63B41F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C1E75B-2AC2-40AB-8D57-20A7D5419072}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6927,21 +6944,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5E41CA-7CC8-4374-B90B-F75EA63B41F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>